--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/负债合计.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/负债合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2113.33466</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5087.34462</v>
-      </c>
-      <c r="D2" t="n">
-        <v>619.5733300000001</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.31142</v>
-      </c>
-      <c r="F2" t="n">
-        <v>440.86913</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5544.06358</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1034.70131</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1594.59786</v>
-      </c>
-      <c r="J2" t="n">
-        <v>539.16493</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1213.22426</v>
-      </c>
-      <c r="L2" t="n">
-        <v>204.58437</v>
-      </c>
-      <c r="M2" t="n">
-        <v>289.88299</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3051.32227</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1863.35798</v>
-      </c>
-      <c r="P2" t="n">
-        <v>349.34648</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1023.46523</v>
-      </c>
-      <c r="R2" t="n">
-        <v>456.2488</v>
-      </c>
-      <c r="S2" t="n">
-        <v>272.34524</v>
-      </c>
-      <c r="T2" t="n">
-        <v>739.03012</v>
-      </c>
-      <c r="U2" t="n">
-        <v>911.70509</v>
-      </c>
-      <c r="V2" t="n">
-        <v>279.00378</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2527.16169</v>
-      </c>
-      <c r="X2" t="n">
-        <v>11260.53655</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>4492.11112</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>3280.33282</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>625.54382</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>2251.99215</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1636.88649</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>4158.2382</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>596.88151</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>76743.84</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1657.53193</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1634.00236</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>3982.32982</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>410.28195</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1045.84386</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>2226.60845</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1653.75781</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>5005.84004</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>151.20638</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2122.02072</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5416.21046</v>
-      </c>
-      <c r="D3" t="n">
-        <v>648.18241</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.98158</v>
-      </c>
-      <c r="F3" t="n">
-        <v>452.62458</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5501.45606</v>
-      </c>
-      <c r="H3" t="n">
-        <v>917.76801</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1799.57436</v>
-      </c>
-      <c r="J3" t="n">
-        <v>620.25375</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1277.40607</v>
-      </c>
-      <c r="L3" t="n">
-        <v>221.05549</v>
-      </c>
-      <c r="M3" t="n">
-        <v>293.58207</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3165.13245</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2022.79716</v>
-      </c>
-      <c r="P3" t="n">
-        <v>353.71568</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1087.62691</v>
-      </c>
-      <c r="R3" t="n">
-        <v>468.4931</v>
-      </c>
-      <c r="S3" t="n">
-        <v>265.25043</v>
-      </c>
-      <c r="T3" t="n">
-        <v>751.5401000000001</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1241.60876</v>
-      </c>
-      <c r="V3" t="n">
-        <v>277.59892</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2711.0908</v>
-      </c>
-      <c r="X3" t="n">
-        <v>12408.99528</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>4872.60932</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>3452.8101</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>644.86645</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>2219.27814</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1546.47006</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>4181.9527</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>682.3748399999999</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>79843.42</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1733.10752</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1685.24067</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>3970.2203</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>358.9755</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1082.06236</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>2133.4236</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1624.7825</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4973.7789</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>158.53805</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2334.05331</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6049.53185</v>
-      </c>
-      <c r="D4" t="n">
-        <v>693.68817</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.63566</v>
-      </c>
-      <c r="F4" t="n">
-        <v>495.04339</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5745.44954</v>
-      </c>
-      <c r="H4" t="n">
-        <v>930.5196999999999</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1990.84351</v>
-      </c>
-      <c r="J4" t="n">
-        <v>605.08187</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1399.62417</v>
-      </c>
-      <c r="L4" t="n">
-        <v>247.93125</v>
-      </c>
-      <c r="M4" t="n">
-        <v>340.65502</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3382.22769</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2145.32555</v>
-      </c>
-      <c r="P4" t="n">
-        <v>362.17999</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1176.12675</v>
-      </c>
-      <c r="R4" t="n">
-        <v>493.97282</v>
-      </c>
-      <c r="S4" t="n">
-        <v>269.12015</v>
-      </c>
-      <c r="T4" t="n">
-        <v>780.19284</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1198.57684</v>
-      </c>
-      <c r="V4" t="n">
-        <v>338.37457</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2742.24341</v>
-      </c>
-      <c r="X4" t="n">
-        <v>13710.30493</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>5717.14771</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>3690.30503</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>708.24456</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>2186.96935</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1568.54503</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>4390.69991</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>799.12504</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>85857.42</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1873.30013</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1821.44205</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>4155.79039</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>412.73944</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1212.56816</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>2231.31606</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1650.47216</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5313.0443</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>188.27806</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
